--- a/downloads/RSSB Risk Decomp 09.03.24.xlsx
+++ b/downloads/RSSB Risk Decomp 09.03.24.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Measures - Dec 5, 2023 to Aug 29, 2024</t>
+          <t>Measures - Dec 5, 2023 to Aug 30, 2024</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/3/2024 5:31:19 AM</t>
+          <t>9/3/2024 11:21:25 AM</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>192073541.68</v>
+        <v>192912890</v>
       </c>
     </row>
     <row r="13">
@@ -622,40 +622,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.032119</v>
+        <v>0.031463</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003076</v>
+        <v>0.00306</v>
       </c>
       <c r="D13" t="n">
-        <v>0.027403</v>
+        <v>0.027144</v>
       </c>
       <c r="E13" t="n">
-        <v>0.027291</v>
+        <v>0.027744</v>
       </c>
       <c r="F13" t="n">
-        <v>0.040321</v>
+        <v>0.040829</v>
       </c>
       <c r="G13" t="n">
         <v>0.12114</v>
       </c>
       <c r="H13" t="n">
-        <v>0.009480000000000001</v>
+        <v>0.009686</v>
       </c>
       <c r="I13" t="n">
-        <v>0.033788</v>
+        <v>0.033605</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08104</v>
+        <v>0.081071</v>
       </c>
       <c r="K13" t="n">
         <v>0.168326</v>
       </c>
       <c r="L13" t="n">
-        <v>4.541984</v>
+        <v>4.521692</v>
       </c>
       <c r="M13" t="n">
-        <v>8770913.52</v>
+        <v>8748528.140000001</v>
       </c>
     </row>
     <row r="14">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-9.933116</v>
+        <v>-9.978636</v>
       </c>
       <c r="M14" t="n">
-        <v>-19074000</v>
+        <v>-19247400</v>
       </c>
     </row>
     <row r="15">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-25.084906</v>
+        <v>-24.904305</v>
       </c>
       <c r="M15" t="n">
-        <v>-48169125</v>
+        <v>-48036937.5</v>
       </c>
     </row>
     <row r="16">
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-25.096167</v>
+        <v>-24.963375</v>
       </c>
       <c r="M16" t="n">
-        <v>-48190750</v>
+        <v>-48150875.23</v>
       </c>
     </row>
     <row r="17">
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-25.11384</v>
+        <v>-24.955307</v>
       </c>
       <c r="M17" t="n">
-        <v>-48224687.72</v>
+        <v>-48135312.72</v>
       </c>
     </row>
     <row r="18">
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-24.882034</v>
+        <v>-24.639544</v>
       </c>
       <c r="M18" t="n">
-        <v>-47779562.5</v>
+        <v>-47526250</v>
       </c>
     </row>
     <row r="19">
@@ -910,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.230179</v>
+        <v>5.02963</v>
       </c>
       <c r="M19" t="n">
-        <v>10043217.67</v>
+        <v>9701456.09</v>
       </c>
     </row>
     <row r="20">
@@ -923,40 +923,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.652668</v>
+        <v>7.564442</v>
       </c>
       <c r="C20" t="n">
-        <v>8.418278000000001</v>
+        <v>8.230822</v>
       </c>
       <c r="D20" t="n">
-        <v>7.277964</v>
+        <v>7.334046</v>
       </c>
       <c r="E20" t="n">
-        <v>6.412846</v>
+        <v>6.502869</v>
       </c>
       <c r="F20" t="n">
-        <v>5.754482</v>
+        <v>5.876251</v>
       </c>
       <c r="G20" t="n">
-        <v>13.197669</v>
+        <v>13.197553</v>
       </c>
       <c r="H20" t="n">
-        <v>11.865257</v>
+        <v>11.807255</v>
       </c>
       <c r="I20" t="n">
-        <v>4.103315</v>
+        <v>4.114424</v>
       </c>
       <c r="J20" t="n">
-        <v>8.707382000000001</v>
+        <v>8.610535</v>
       </c>
       <c r="K20" t="n">
-        <v>10.984692</v>
+        <v>10.977751</v>
       </c>
       <c r="L20" t="n">
-        <v>9.933116</v>
+        <v>9.978636</v>
       </c>
       <c r="M20" t="n">
-        <v>19074000</v>
+        <v>19247400</v>
       </c>
     </row>
     <row r="21">
@@ -966,40 +966,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.729404</v>
+        <v>6.974341</v>
       </c>
       <c r="C21" t="n">
-        <v>5.400549</v>
+        <v>5.845337</v>
       </c>
       <c r="D21" t="n">
-        <v>7.644235</v>
+        <v>7.534212</v>
       </c>
       <c r="E21" t="n">
-        <v>7.786281</v>
+        <v>7.299501</v>
       </c>
       <c r="F21" t="n">
-        <v>11.278152</v>
+        <v>11.001105</v>
       </c>
       <c r="G21" t="n">
-        <v>4.595513</v>
+        <v>4.87547</v>
       </c>
       <c r="H21" t="n">
-        <v>3.01415</v>
+        <v>3.359789</v>
       </c>
       <c r="I21" t="n">
-        <v>1.706601</v>
+        <v>1.693558</v>
       </c>
       <c r="J21" t="n">
-        <v>4.186392</v>
+        <v>3.872711</v>
       </c>
       <c r="K21" t="n">
-        <v>8.524965</v>
+        <v>8.234669</v>
       </c>
       <c r="L21" t="n">
-        <v>25.084906</v>
+        <v>24.904305</v>
       </c>
       <c r="M21" t="n">
-        <v>48169125</v>
+        <v>48036937.5</v>
       </c>
     </row>
     <row r="22">
@@ -1009,40 +1009,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.691124</v>
+        <v>2.049132</v>
       </c>
       <c r="C22" t="n">
-        <v>1.364304</v>
+        <v>1.815367</v>
       </c>
       <c r="D22" t="n">
-        <v>2.073612</v>
+        <v>2.047195</v>
       </c>
       <c r="E22" t="n">
-        <v>1.821444</v>
+        <v>1.294311</v>
       </c>
       <c r="F22" t="n">
-        <v>3.013903</v>
+        <v>2.674695</v>
       </c>
       <c r="G22" t="n">
-        <v>1.154351</v>
+        <v>1.429073</v>
       </c>
       <c r="H22" t="n">
-        <v>0.761103</v>
+        <v>1.04097</v>
       </c>
       <c r="I22" t="n">
-        <v>0.462733</v>
+        <v>0.459084</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9788829999999999</v>
+        <v>0.685065</v>
       </c>
       <c r="K22" t="n">
-        <v>2.277136</v>
+        <v>1.997354</v>
       </c>
       <c r="L22" t="n">
-        <v>25.096169</v>
+        <v>24.963375</v>
       </c>
       <c r="M22" t="n">
-        <v>48190750</v>
+        <v>48150875.23</v>
       </c>
     </row>
     <row r="23">
@@ -1052,40 +1052,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.671205</v>
+        <v>4.967062</v>
       </c>
       <c r="C23" t="n">
-        <v>4.02074</v>
+        <v>4.4569</v>
       </c>
       <c r="D23" t="n">
-        <v>5.412776</v>
+        <v>5.340944</v>
       </c>
       <c r="E23" t="n">
-        <v>5.397476</v>
+        <v>4.886241</v>
       </c>
       <c r="F23" t="n">
-        <v>8.088602</v>
+        <v>7.793497</v>
       </c>
       <c r="G23" t="n">
-        <v>3.186292</v>
+        <v>3.465168</v>
       </c>
       <c r="H23" t="n">
-        <v>2.241466</v>
+        <v>2.556506</v>
       </c>
       <c r="I23" t="n">
-        <v>1.207028</v>
+        <v>1.198096</v>
       </c>
       <c r="J23" t="n">
-        <v>2.898677</v>
+        <v>2.58707</v>
       </c>
       <c r="K23" t="n">
-        <v>6.106994</v>
+        <v>5.821752</v>
       </c>
       <c r="L23" t="n">
-        <v>25.11384</v>
+        <v>24.955307</v>
       </c>
       <c r="M23" t="n">
-        <v>48224687.72</v>
+        <v>48135312.72</v>
       </c>
     </row>
     <row r="24">
@@ -1095,40 +1095,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.611637</v>
+        <v>11.706146</v>
       </c>
       <c r="C24" t="n">
-        <v>8.908162000000001</v>
+        <v>9.350796000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>12.452461</v>
+        <v>12.231868</v>
       </c>
       <c r="E24" t="n">
-        <v>12.617697</v>
+        <v>11.969994</v>
       </c>
       <c r="F24" t="n">
-        <v>17.564905</v>
+        <v>17.287428</v>
       </c>
       <c r="G24" t="n">
-        <v>7.994245</v>
+        <v>8.271209000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>5.012353</v>
+        <v>5.432414</v>
       </c>
       <c r="I24" t="n">
-        <v>2.80272</v>
+        <v>2.779052</v>
       </c>
       <c r="J24" t="n">
-        <v>6.839376</v>
+        <v>6.418856</v>
       </c>
       <c r="K24" t="n">
-        <v>13.385268</v>
+        <v>13.079224</v>
       </c>
       <c r="L24" t="n">
-        <v>24.882034</v>
+        <v>24.639544</v>
       </c>
       <c r="M24" t="n">
-        <v>47779562.5</v>
+        <v>47526250</v>
       </c>
     </row>
     <row r="25">
@@ -1138,40 +1138,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.384012</v>
+        <v>23.954002</v>
       </c>
       <c r="C25" t="n">
-        <v>24.95437</v>
+        <v>24.347134</v>
       </c>
       <c r="D25" t="n">
-        <v>23.786804</v>
+        <v>23.808496</v>
       </c>
       <c r="E25" t="n">
-        <v>28.88079</v>
+        <v>30.176758</v>
       </c>
       <c r="F25" t="n">
-        <v>21.383858</v>
+        <v>21.714993</v>
       </c>
       <c r="G25" t="n">
         <v>11.652179</v>
       </c>
       <c r="H25" t="n">
-        <v>9.745813999999999</v>
+        <v>9.737918000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>3.716026</v>
+        <v>3.724002</v>
       </c>
       <c r="J25" t="n">
-        <v>10.865845</v>
+        <v>11.140644</v>
       </c>
       <c r="K25" t="n">
         <v>11.310592</v>
       </c>
       <c r="L25" t="n">
-        <v>35.848244</v>
+        <v>35.78975</v>
       </c>
       <c r="M25" t="n">
-        <v>68837353.48999999</v>
+        <v>69033440.27</v>
       </c>
     </row>
     <row r="26">
@@ -1181,40 +1181,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>43.227833</v>
+        <v>42.75341</v>
       </c>
       <c r="C26" t="n">
-        <v>46.93052</v>
+        <v>45.950584</v>
       </c>
       <c r="D26" t="n">
-        <v>41.324745</v>
+        <v>41.676094</v>
       </c>
       <c r="E26" t="n">
-        <v>37.056175</v>
+        <v>37.842583</v>
       </c>
       <c r="F26" t="n">
-        <v>32.87578</v>
+        <v>33.611202</v>
       </c>
       <c r="G26" t="n">
         <v>13.617498</v>
       </c>
       <c r="H26" t="n">
-        <v>12.082556</v>
+        <v>12.033913</v>
       </c>
       <c r="I26" t="n">
-        <v>4.255834</v>
+        <v>4.268374</v>
       </c>
       <c r="J26" t="n">
-        <v>9.190664999999999</v>
+        <v>9.147786</v>
       </c>
       <c r="K26" t="n">
         <v>11.463235</v>
       </c>
       <c r="L26" t="n">
-        <v>54.379593</v>
+        <v>54.658928</v>
       </c>
       <c r="M26" t="n">
-        <v>104422057</v>
+        <v>105429465.5</v>
       </c>
     </row>
   </sheetData>
